--- a/data.xlsx
+++ b/data.xlsx
@@ -5,19 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azevedo\Documents\ENGENHARIA\Etiquetas_IA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azevedo\Documents\ENGENHARIA\etiquetasIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876E075-3ABD-468F-89DA-65805D72D669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196995CA-F8AA-40D6-BEE6-58B50973E659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Página1" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha1!$A$1:$M$226</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$R$424</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="2150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4757" uniqueCount="2300">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -6476,6 +6478,456 @@
   </si>
   <si>
     <t>Escutar sobre a visão do Exército quanto ao emprego de Inteligência Artificial nas mais diversas áreas de atuação.</t>
+  </si>
+  <si>
+    <t>Vinícius Melquíades Scaldaferri da Cunha</t>
+  </si>
+  <si>
+    <t>Leandro Moreira Costa Silva</t>
+  </si>
+  <si>
+    <t>Luiz Filipe Magalhães Meireles</t>
+  </si>
+  <si>
+    <t>CEL</t>
+  </si>
+  <si>
+    <t>Instituto de Economia, Finanças e Administração da Aeronáutica</t>
+  </si>
+  <si>
+    <t>Edinaldo Rui da Silva</t>
+  </si>
+  <si>
+    <t>AVPE SP ASSOCIAÇÃO DOS VETERANOS DA POLÍCIA DO EXÉRCITO DE SP</t>
+  </si>
+  <si>
+    <t>Marcos José Sylvestre</t>
+  </si>
+  <si>
+    <t>2⁰ ten RNR Marinha do Brasil</t>
+  </si>
+  <si>
+    <t>Ricardo de Lima Barreto Filho</t>
+  </si>
+  <si>
+    <t>PMDF</t>
+  </si>
+  <si>
+    <t>Paulo Roberto Cabral de Souza Junior</t>
+  </si>
+  <si>
+    <t>Gustavo Lopes da Cruz</t>
+  </si>
+  <si>
+    <t>CLAUDIO UBIRAJARA COUTO DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>Suelen Cristina Silva Oliveira</t>
+  </si>
+  <si>
+    <t>Jacqueline Chiara Moura Karraz</t>
+  </si>
+  <si>
+    <t>Marcelo Veiga Maciel</t>
+  </si>
+  <si>
+    <t>Soraia Maranhão Cardoso Godoy de Souza</t>
+  </si>
+  <si>
+    <t>Prof. Dr. (Civil)</t>
+  </si>
+  <si>
+    <t>Rogério de Amorim Gonçalves</t>
+  </si>
+  <si>
+    <t>Robson Cruz Silva</t>
+  </si>
+  <si>
+    <t>Georgia Lucien Brêtas Las Casas de Oliveira</t>
+  </si>
+  <si>
+    <t>Carlos Henrique Costa de Souza</t>
+  </si>
+  <si>
+    <t>Startup Synaptix</t>
+  </si>
+  <si>
+    <t>João Paulo Pereira da Silva</t>
+  </si>
+  <si>
+    <t>Daniel de Cerqueira Lima Mendes</t>
+  </si>
+  <si>
+    <t>Eduardo Borba Neves</t>
+  </si>
+  <si>
+    <t>SINTESYS</t>
+  </si>
+  <si>
+    <t>Claudio Azevedo Passos</t>
+  </si>
+  <si>
+    <t>Civil/Doutorado</t>
+  </si>
+  <si>
+    <t>Colégio Pedro II</t>
+  </si>
+  <si>
+    <t>Mestre em Saúdee Tecnologia / Engenheiro de Produção</t>
+  </si>
+  <si>
+    <t>Carlos Alberto Barbosa Filho</t>
+  </si>
+  <si>
+    <t>Confederação Brasileira de Futebol</t>
+  </si>
+  <si>
+    <t>Pedro piredda</t>
+  </si>
+  <si>
+    <t>Technical Partner</t>
+  </si>
+  <si>
+    <t>Priscila Merlim Lima Scheidegger</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo Barbosa</t>
+  </si>
+  <si>
+    <t>Rogério Ricardo da Silva</t>
+  </si>
+  <si>
+    <t>Francisco José Casimimiro Brandão</t>
+  </si>
+  <si>
+    <t>Civil - Graduação</t>
+  </si>
+  <si>
+    <t>Políclinica Militar de Niterói</t>
+  </si>
+  <si>
+    <t>Vinícius Costa Silva</t>
+  </si>
+  <si>
+    <t>Heitor Batista de Azevedo</t>
+  </si>
+  <si>
+    <t>CDL Manaus</t>
+  </si>
+  <si>
+    <t>Marcos Carvalho Barcellos</t>
+  </si>
+  <si>
+    <t>ANDRÉ NUNES PEREIRA</t>
+  </si>
+  <si>
+    <t>Suboficial Aeronáutica</t>
+  </si>
+  <si>
+    <t>Brevet</t>
+  </si>
+  <si>
+    <t>José Adalberto França Junior</t>
+  </si>
+  <si>
+    <t>Tenente-coronel</t>
+  </si>
+  <si>
+    <t>Nina Machado Figueira</t>
+  </si>
+  <si>
+    <t>Ruy Melgaço Lucas de Jesus</t>
+  </si>
+  <si>
+    <t>Daniel Ramalho Dantas Araujo</t>
+  </si>
+  <si>
+    <t>Beatriz Fragnan Pimento de Oliveira</t>
+  </si>
+  <si>
+    <t>Max Silva Alaluna</t>
+  </si>
+  <si>
+    <t>João Antônio Porto Gonçalves</t>
+  </si>
+  <si>
+    <t>Formação em óleo e gás/ energias- Civil</t>
+  </si>
+  <si>
+    <t>Ana Paula Reis da Conceição Vasconcelos</t>
+  </si>
+  <si>
+    <t>Cívil</t>
+  </si>
+  <si>
+    <t>Guarda Municipal do Rj/ APC ADVOCACIA PRETA CARIOCA</t>
+  </si>
+  <si>
+    <t>Victor Muniz Pereira da Silva</t>
+  </si>
+  <si>
+    <t>Lídia Beatriz Oliveira de Souza</t>
+  </si>
+  <si>
+    <t>Gabriela Barbosa Martins</t>
+  </si>
+  <si>
+    <t>Carlos fernando carvalho de santana</t>
+  </si>
+  <si>
+    <t>Camilla Juncal Toledo</t>
+  </si>
+  <si>
+    <t>Kaê Duarte Gonçalves</t>
+  </si>
+  <si>
+    <t>Juliana Lima</t>
+  </si>
+  <si>
+    <t>Haroldo Ikuta</t>
+  </si>
+  <si>
+    <t>Direito</t>
+  </si>
+  <si>
+    <t>ADESG SP</t>
+  </si>
+  <si>
+    <t>Gregory Philipe Abreu de Brito</t>
+  </si>
+  <si>
+    <t>Secretaria Municipal de Trabalho e Renda</t>
+  </si>
+  <si>
+    <t>Nilson Gomes Mendonça</t>
+  </si>
+  <si>
+    <t>Stefania Meneses Nascimento dos santos Oliveira</t>
+  </si>
+  <si>
+    <t>Advogada direito marítimo</t>
+  </si>
+  <si>
+    <t>George Alex Fernandes Gomes</t>
+  </si>
+  <si>
+    <t>Centro de Análise de Sistemas Navais</t>
+  </si>
+  <si>
+    <t>José Augusto Abreu de Moura</t>
+  </si>
+  <si>
+    <t>André Luiz Rodrigues Gomes</t>
+  </si>
+  <si>
+    <t>Aécio Alvares dos Santos</t>
+  </si>
+  <si>
+    <t>Leiry Maria Cipriani</t>
+  </si>
+  <si>
+    <t>Ângela Cristina Rodrigues de Castro</t>
+  </si>
+  <si>
+    <t>Dra. Cristiane Fagundes</t>
+  </si>
+  <si>
+    <t>LDN-RJ</t>
+  </si>
+  <si>
+    <t>Írio Vaz Faria junior</t>
+  </si>
+  <si>
+    <t>Gentil Oliveira Pires</t>
+  </si>
+  <si>
+    <t>José Eudes Marinho da Silva</t>
+  </si>
+  <si>
+    <t>Sérgio Mateus Andrade Loiola</t>
+  </si>
+  <si>
+    <t>PUC-Rio</t>
+  </si>
+  <si>
+    <t>Leonardo Carneiro Andrade</t>
+  </si>
+  <si>
+    <t>Arsenal de Marinha do Rio de Janeiro (AMRJ) - Marinha do Brasil</t>
+  </si>
+  <si>
+    <t>Roberto Viana Regulo</t>
+  </si>
+  <si>
+    <t>IPLANRIO</t>
+  </si>
+  <si>
+    <t>Lucio Fabio Cassiano Nascimento</t>
+  </si>
+  <si>
+    <t>Giulia Cavalcanti Martins</t>
+  </si>
+  <si>
+    <t>Ian Dayves Damaceno De Sousa</t>
+  </si>
+  <si>
+    <t>ERLON PACHECO DA SILVA</t>
+  </si>
+  <si>
+    <t>GEN BDA</t>
+  </si>
+  <si>
+    <t>Cléber de Jesus Oliveira</t>
+  </si>
+  <si>
+    <t>1° Grupamento de Engenharia</t>
+  </si>
+  <si>
+    <t>Douglas Maia Sarmento</t>
+  </si>
+  <si>
+    <t>2° Ten/ Pos graduação em Ensino de Física</t>
+  </si>
+  <si>
+    <t>Academia Militar das Agulhas Negras - AMAN</t>
+  </si>
+  <si>
+    <t>3º Sargento Veterano</t>
+  </si>
+  <si>
+    <t>Capitão de Mar e Guerra Veterano</t>
+  </si>
+  <si>
+    <t>2º Tenente Veterano</t>
+  </si>
+  <si>
+    <t>1º Tenente Veterano</t>
+  </si>
+  <si>
+    <t>1º Sargento</t>
+  </si>
+  <si>
+    <t>3º Sargento</t>
+  </si>
+  <si>
+    <t>Suboficial</t>
+  </si>
+  <si>
+    <t>Tenente-Coronel Veterano</t>
+  </si>
+  <si>
+    <t>José Antonio Moreira Xexéo</t>
+  </si>
+  <si>
+    <t>Tenente-Coronel</t>
+  </si>
+  <si>
+    <t>Contra-Almirante Veterano</t>
+  </si>
+  <si>
+    <t>General de Brigada</t>
+  </si>
+  <si>
+    <t>Caetano Christophe Rosado Penna</t>
+  </si>
+  <si>
+    <t>Roberto Alves Gallo Filho</t>
+  </si>
+  <si>
+    <t>Bruno Monteiro Portela</t>
+  </si>
+  <si>
+    <t>Luciano Valentim Rechiuti</t>
+  </si>
+  <si>
+    <t>Major-Brigadeiro Engenheiro</t>
+  </si>
+  <si>
+    <t>DECTI/MD</t>
+  </si>
+  <si>
+    <t>AGU</t>
+  </si>
+  <si>
+    <t>ABIMDE</t>
+  </si>
+  <si>
+    <t>CGEE</t>
+  </si>
+  <si>
+    <t>Posto</t>
+  </si>
+  <si>
+    <t>Richard Fernandez Nunes</t>
+  </si>
+  <si>
+    <t>General de Exército</t>
+  </si>
+  <si>
+    <t>Guilherme de Paula Corrêa</t>
+  </si>
+  <si>
+    <t>MCTI</t>
+  </si>
+  <si>
+    <t>Rosiane de Freitas Rodrigues</t>
+  </si>
+  <si>
+    <t>UFAM</t>
+  </si>
+  <si>
+    <t>Cleber Zanchettin</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo Franco Azevedo</t>
+  </si>
+  <si>
+    <t>Marcelo Goñes Sabbá de Alencar</t>
+  </si>
+  <si>
+    <t>Sandro Teixeira</t>
+  </si>
+  <si>
+    <t>Luiz Carlos Lott Guimarães</t>
+  </si>
+  <si>
+    <t>COTER</t>
+  </si>
+  <si>
+    <t>Alexandre Cabral Godinho</t>
+  </si>
+  <si>
+    <t>CIE</t>
+  </si>
+  <si>
+    <t>Marcelo Silva Bortolini de Castro</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>André Nunes</t>
+  </si>
+  <si>
+    <t>FINEP</t>
+  </si>
+  <si>
+    <t>Rafael Guilherme Wandrey</t>
+  </si>
+  <si>
+    <t>Jerson Lima Silva</t>
+  </si>
+  <si>
+    <t>Carlos Américo Pacheco</t>
+  </si>
+  <si>
+    <t>EMBRAPII</t>
+  </si>
+  <si>
+    <t>FAPERJ</t>
+  </si>
+  <si>
+    <t>FAPESP</t>
   </si>
 </sst>
 </file>
@@ -6485,7 +6937,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6503,6 +6955,29 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6518,7 +6993,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6526,11 +7001,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -6539,6 +7029,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6776,7 +7281,7 @@
     <col min="10" max="18" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6814,7 +7319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45564.373669189816</v>
       </c>
@@ -6849,7 +7354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45567.651444178242</v>
       </c>
@@ -6884,7 +7389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45568.627223310184</v>
       </c>
@@ -6919,7 +7424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45569.419250891202</v>
       </c>
@@ -6954,7 +7459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45572.533210312497</v>
       </c>
@@ -6989,7 +7494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45572.533518113429</v>
       </c>
@@ -7024,7 +7529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45572.764689166666</v>
       </c>
@@ -7059,7 +7564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45573.383825520832</v>
       </c>
@@ -7094,7 +7599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45573.557165706021</v>
       </c>
@@ -7126,7 +7631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45573.633031898149</v>
       </c>
@@ -7161,7 +7666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45574.703404282409</v>
       </c>
@@ -7196,7 +7701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45574.727046041662</v>
       </c>
@@ -7228,7 +7733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45574.743977060185</v>
       </c>
@@ -7263,7 +7768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45574.795971053245</v>
       </c>
@@ -7298,7 +7803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45575.363330300926</v>
       </c>
@@ -7333,7 +7838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45575.365494803242</v>
       </c>
@@ -7368,7 +7873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45575.38794508102</v>
       </c>
@@ -7400,7 +7905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45575.397144768518</v>
       </c>
@@ -7435,7 +7940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45575.402171226851</v>
       </c>
@@ -7467,7 +7972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45575.403504363421</v>
       </c>
@@ -7499,7 +8004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45575.419258946757</v>
       </c>
@@ -7531,7 +8036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45575.439816574071</v>
       </c>
@@ -7563,7 +8068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45575.45116571759</v>
       </c>
@@ -7598,7 +8103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45575.480214143521</v>
       </c>
@@ -7633,7 +8138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45575.485763888893</v>
       </c>
@@ -7668,7 +8173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45575.498949606481</v>
       </c>
@@ -7703,7 +8208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45575.544056342595</v>
       </c>
@@ -7738,7 +8243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45575.567144004628</v>
       </c>
@@ -7770,7 +8275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45576.433377303241</v>
       </c>
@@ -7805,7 +8310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45576.548404039349</v>
       </c>
@@ -7840,7 +8345,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45576.619326284723</v>
       </c>
@@ -7875,7 +8380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45576.665426817126</v>
       </c>
@@ -7907,7 +8412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45576.694505046296</v>
       </c>
@@ -7942,7 +8447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45576.739030185185</v>
       </c>
@@ -7974,7 +8479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45576.894054479169</v>
       </c>
@@ -8009,7 +8514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45576.903321273145</v>
       </c>
@@ -8041,7 +8546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45576.903535254634</v>
       </c>
@@ -8076,7 +8581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45576.905501805551</v>
       </c>
@@ -8111,7 +8616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45576.905941493053</v>
       </c>
@@ -8146,7 +8651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45576.965921145835</v>
       </c>
@@ -8181,7 +8686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45576.980203946761</v>
       </c>
@@ -8213,7 +8718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45577.433195347221</v>
       </c>
@@ -8248,7 +8753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45577.485366469904</v>
       </c>
@@ -8283,7 +8788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45577.493803356483</v>
       </c>
@@ -8315,7 +8820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45577.754505659723</v>
       </c>
@@ -8347,7 +8852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45578.260559652779</v>
       </c>
@@ -21465,1754 +21970,3813 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117F076C-6D6F-4158-85CD-6D24B75A300E}">
-  <dimension ref="A1:B217"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="61.7109375" customWidth="1"/>
+    <col min="1" max="4" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="24" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B155" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B180" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D180" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="181" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B190" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="191" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B196" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="197" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="7" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D203" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="204" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B211" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D211" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="212" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D217" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="218" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C218" s="7"/>
+      <c r="D218" s="7" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C219" s="7"/>
+      <c r="D219" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="220" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="7" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D220" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="221" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C223" s="7"/>
+      <c r="D223" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B224" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D224" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B59" s="1" t="s">
+    <row r="225" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C225" s="7"/>
+      <c r="D225" s="7" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M226" xr:uid="{117F076C-6D6F-4158-85CD-6D24B75A300E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M226">
+      <sortCondition ref="A1:A226"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5B609F-732B-4279-A42E-F177E979BA2C}">
+  <dimension ref="A1:D113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="49.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    <row r="11" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B74" s="1" t="s">
+    <row r="13" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B170" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>1625</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>1735</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
-        <v>1812</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>1910</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>1922</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
-        <v>1930</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>1933</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
-        <v>1941</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
-        <v>1955</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>1975</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
-        <v>1984</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>2008</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
-        <v>2028</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
-        <v>2038</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
-        <v>2042</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
-        <v>2048</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
-        <v>2052</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>2068</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
-        <v>2088</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="1" t="s">
-        <v>2103</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="1" t="s">
-        <v>2113</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="1" t="s">
-        <v>2120</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
-        <v>2139</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
-        <v>2145</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>2146</v>
-      </c>
+    <row r="16" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="10" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>